--- a/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\郑立玄\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\book\CS\architecture\hustzc-master\design\circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC17EF4-8FDA-43CC-95DB-3339219A69EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF4C27-9ABC-4464-9CB6-6F6975E1425C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AK$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2042,29 +2041,29 @@
   <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P63" sqref="E63:P65"/>
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="10.58203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="45" customWidth="1"/>
-    <col min="6" max="15" width="4.58203125" style="45" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="45" customWidth="1"/>
-    <col min="17" max="20" width="3.58203125" style="45" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="45" customWidth="1"/>
-    <col min="22" max="22" width="9.25" style="45" customWidth="1"/>
-    <col min="23" max="23" width="10.58203125" style="45" customWidth="1"/>
-    <col min="24" max="24" width="9.5" style="45" customWidth="1"/>
-    <col min="25" max="26" width="9.25" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" style="45" customWidth="1"/>
+    <col min="6" max="15" width="4.59765625" style="45" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" style="45" customWidth="1"/>
+    <col min="17" max="20" width="3.59765625" style="45" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.265625" style="45" customWidth="1"/>
+    <col min="22" max="22" width="9.265625" style="45" customWidth="1"/>
+    <col min="23" max="23" width="10.59765625" style="45" customWidth="1"/>
+    <col min="24" max="24" width="9.46484375" style="45" customWidth="1"/>
+    <col min="25" max="26" width="9.265625" style="45" customWidth="1"/>
     <col min="27" max="30" width="9" style="45" customWidth="1"/>
     <col min="31" max="32" width="9" style="46" customWidth="1"/>
     <col min="33" max="39" width="9" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="17" customFormat="1" ht="27.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="17" customFormat="1" ht="28.15" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A2" s="52">
         <v>1</v>
       </c>
@@ -2283,7 +2282,7 @@
       <c r="AL2" s="25"/>
       <c r="AM2" s="25"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A3" s="55">
         <v>2</v>
       </c>
@@ -2380,7 +2379,7 @@
       <c r="AL3" s="69"/>
       <c r="AM3" s="69"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -2477,7 +2476,7 @@
       <c r="AL4" s="25"/>
       <c r="AM4" s="25"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -2574,7 +2573,7 @@
       <c r="AL5" s="69"/>
       <c r="AM5" s="69"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A6" s="52">
         <v>5</v>
       </c>
@@ -2671,7 +2670,7 @@
       <c r="AL6" s="25"/>
       <c r="AM6" s="25"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A7" s="55">
         <v>6</v>
       </c>
@@ -2768,7 +2767,7 @@
       <c r="AL7" s="69"/>
       <c r="AM7" s="69"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A8" s="52">
         <v>7</v>
       </c>
@@ -2865,7 +2864,7 @@
       <c r="AL8" s="25"/>
       <c r="AM8" s="25"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A9" s="55">
         <v>8</v>
       </c>
@@ -2962,7 +2961,7 @@
       <c r="AL9" s="69"/>
       <c r="AM9" s="69"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A10" s="52">
         <v>9</v>
       </c>
@@ -3059,7 +3058,7 @@
       <c r="AL10" s="25"/>
       <c r="AM10" s="25"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A11" s="55">
         <v>10</v>
       </c>
@@ -3156,7 +3155,7 @@
       <c r="AL11" s="69"/>
       <c r="AM11" s="69"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A12" s="52">
         <v>11</v>
       </c>
@@ -3253,7 +3252,7 @@
       <c r="AL12" s="25"/>
       <c r="AM12" s="25"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A13" s="55">
         <v>12</v>
       </c>
@@ -3352,7 +3351,7 @@
       <c r="AL13" s="69"/>
       <c r="AM13" s="69"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A14" s="52">
         <v>13</v>
       </c>
@@ -3451,7 +3450,7 @@
       <c r="AL14" s="25"/>
       <c r="AM14" s="25"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A15" s="55">
         <v>14</v>
       </c>
@@ -3550,7 +3549,7 @@
       <c r="AL15" s="69"/>
       <c r="AM15" s="69"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A16" s="52">
         <v>15</v>
       </c>
@@ -3649,7 +3648,7 @@
       <c r="AL16" s="25"/>
       <c r="AM16" s="25"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A17" s="55">
         <v>16</v>
       </c>
@@ -3722,18 +3721,14 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U17" s="55">
-        <v>1</v>
-      </c>
+      <c r="U17" s="55"/>
       <c r="V17" s="55">
         <v>1</v>
       </c>
       <c r="W17" s="55">
         <v>1</v>
       </c>
-      <c r="X17" s="55">
-        <v>1</v>
-      </c>
+      <c r="X17" s="55"/>
       <c r="Y17" s="55"/>
       <c r="Z17" s="55">
         <v>1</v>
@@ -3752,7 +3747,7 @@
       <c r="AL17" s="69"/>
       <c r="AM17" s="69"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A18" s="52">
         <v>17</v>
       </c>
@@ -3849,7 +3844,7 @@
       <c r="AL18" s="25"/>
       <c r="AM18" s="25"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A19" s="55">
         <v>18</v>
       </c>
@@ -3942,7 +3937,7 @@
       <c r="AL19" s="69"/>
       <c r="AM19" s="69"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A20" s="52">
         <v>19</v>
       </c>
@@ -4034,7 +4029,7 @@
       <c r="AL20" s="25"/>
       <c r="AM20" s="25"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A21" s="55">
         <v>20</v>
       </c>
@@ -4127,7 +4122,7 @@
       <c r="AL21" s="69"/>
       <c r="AM21" s="69"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A22" s="52">
         <v>21</v>
       </c>
@@ -4226,7 +4221,7 @@
       <c r="AL22" s="25"/>
       <c r="AM22" s="25"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A23" s="55">
         <v>22</v>
       </c>
@@ -4313,7 +4308,7 @@
       <c r="AL23" s="69"/>
       <c r="AM23" s="69"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A24" s="52">
         <v>23</v>
       </c>
@@ -4400,7 +4395,7 @@
       <c r="AL24" s="25"/>
       <c r="AM24" s="25"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A25" s="55">
         <v>24</v>
       </c>
@@ -4487,7 +4482,7 @@
       <c r="AL25" s="69"/>
       <c r="AM25" s="69"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A26" s="52">
         <v>25</v>
       </c>
@@ -4584,7 +4579,7 @@
       <c r="AL26" s="25"/>
       <c r="AM26" s="25"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A27" s="55">
         <v>26</v>
       </c>
@@ -4681,7 +4676,7 @@
       <c r="AL27" s="69"/>
       <c r="AM27" s="69"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A28" s="52">
         <v>27</v>
       </c>
@@ -4782,7 +4777,7 @@
       <c r="AL28" s="25"/>
       <c r="AM28" s="25"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A29" s="55">
         <v>28</v>
       </c>
@@ -4877,7 +4872,7 @@
       <c r="AL29" s="69"/>
       <c r="AM29" s="69"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A30" s="52">
         <v>29</v>
       </c>
@@ -4978,7 +4973,7 @@
       <c r="AL30" s="25"/>
       <c r="AM30" s="25"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A31" s="55">
         <v>30</v>
       </c>
@@ -5073,7 +5068,7 @@
       <c r="AL31" s="69"/>
       <c r="AM31" s="69"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A32" s="52">
         <v>31</v>
       </c>
@@ -5158,7 +5153,7 @@
       <c r="AL32" s="25"/>
       <c r="AM32" s="25"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A33" s="55">
         <v>32</v>
       </c>
@@ -5243,7 +5238,7 @@
       <c r="AL33" s="69"/>
       <c r="AM33" s="69"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A34" s="52">
         <v>33</v>
       </c>
@@ -5328,7 +5323,7 @@
       <c r="AL34" s="25"/>
       <c r="AM34" s="25"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A35" s="55">
         <v>34</v>
       </c>
@@ -5413,7 +5408,7 @@
       <c r="AL35" s="69"/>
       <c r="AM35" s="69"/>
     </row>
-    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A36" s="52"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
@@ -5484,7 +5479,7 @@
       <c r="AL36" s="25"/>
       <c r="AM36" s="25"/>
     </row>
-    <row r="37" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A37" s="55"/>
       <c r="B37" s="55"/>
       <c r="C37" s="56"/>
@@ -5555,7 +5550,7 @@
       <c r="AL37" s="69"/>
       <c r="AM37" s="69"/>
     </row>
-    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A38" s="52"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
@@ -5626,7 +5621,7 @@
       <c r="AL38" s="25"/>
       <c r="AM38" s="25"/>
     </row>
-    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
       <c r="C39" s="56"/>
@@ -5697,7 +5692,7 @@
       <c r="AL39" s="69"/>
       <c r="AM39" s="69"/>
     </row>
-    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A40" s="52"/>
       <c r="B40" s="23"/>
       <c r="C40" s="24"/>
@@ -5768,7 +5763,7 @@
       <c r="AL40" s="25"/>
       <c r="AM40" s="25"/>
     </row>
-    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
       <c r="C41" s="56"/>
@@ -5839,7 +5834,7 @@
       <c r="AL41" s="69"/>
       <c r="AM41" s="69"/>
     </row>
-    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A42" s="52"/>
       <c r="B42" s="23"/>
       <c r="C42" s="24"/>
@@ -5910,7 +5905,7 @@
       <c r="AL42" s="25"/>
       <c r="AM42" s="25"/>
     </row>
-    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="56"/>
@@ -5981,7 +5976,7 @@
       <c r="AL43" s="69"/>
       <c r="AM43" s="69"/>
     </row>
-    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A44" s="52"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
@@ -6052,7 +6047,7 @@
       <c r="AL44" s="25"/>
       <c r="AM44" s="25"/>
     </row>
-    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="56"/>
@@ -6123,7 +6118,7 @@
       <c r="AL45" s="69"/>
       <c r="AM45" s="69"/>
     </row>
-    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A46" s="52"/>
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
@@ -6194,7 +6189,7 @@
       <c r="AL46" s="25"/>
       <c r="AM46" s="25"/>
     </row>
-    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="56"/>
@@ -6265,7 +6260,7 @@
       <c r="AL47" s="69"/>
       <c r="AM47" s="69"/>
     </row>
-    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A48" s="52"/>
       <c r="B48" s="23"/>
       <c r="C48" s="24"/>
@@ -6336,7 +6331,7 @@
       <c r="AL48" s="25"/>
       <c r="AM48" s="25"/>
     </row>
-    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="56"/>
@@ -6407,7 +6402,7 @@
       <c r="AL49" s="69"/>
       <c r="AM49" s="69"/>
     </row>
-    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A50" s="52"/>
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
@@ -6478,7 +6473,7 @@
       <c r="AL50" s="25"/>
       <c r="AM50" s="25"/>
     </row>
-    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="56"/>
@@ -6549,7 +6544,7 @@
       <c r="AL51" s="69"/>
       <c r="AM51" s="69"/>
     </row>
-    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A52" s="52"/>
       <c r="B52" s="23"/>
       <c r="C52" s="24"/>
@@ -6620,7 +6615,7 @@
       <c r="AL52" s="25"/>
       <c r="AM52" s="25"/>
     </row>
-    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="56"/>
@@ -6691,7 +6686,7 @@
       <c r="AL53" s="69"/>
       <c r="AM53" s="69"/>
     </row>
-    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A54" s="52"/>
       <c r="B54" s="23"/>
       <c r="C54" s="24"/>
@@ -6762,7 +6757,7 @@
       <c r="AL54" s="25"/>
       <c r="AM54" s="25"/>
     </row>
-    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="56"/>
@@ -6833,7 +6828,7 @@
       <c r="AL55" s="69"/>
       <c r="AM55" s="69"/>
     </row>
-    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A56" s="52"/>
       <c r="B56" s="23"/>
       <c r="C56" s="24"/>
@@ -6904,7 +6899,7 @@
       <c r="AL56" s="25"/>
       <c r="AM56" s="25"/>
     </row>
-    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="56"/>
@@ -6975,7 +6970,7 @@
       <c r="AL57" s="69"/>
       <c r="AM57" s="69"/>
     </row>
-    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A58" s="52"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
@@ -7046,7 +7041,7 @@
       <c r="AL58" s="25"/>
       <c r="AM58" s="25"/>
     </row>
-    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="56"/>
@@ -7117,7 +7112,7 @@
       <c r="AL59" s="69"/>
       <c r="AM59" s="69"/>
     </row>
-    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A60" s="52"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
@@ -7188,7 +7183,7 @@
       <c r="AL60" s="25"/>
       <c r="AM60" s="25"/>
     </row>
-    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.6">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="56"/>
@@ -7259,7 +7254,7 @@
       <c r="AL61" s="69"/>
       <c r="AM61" s="69"/>
     </row>
-    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A1:E1048576" name="区域1"/>
@@ -7312,26 +7307,26 @@
   <dimension ref="A1:AX63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH58" sqref="AH58"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="18" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" style="18" customWidth="1"/>
-    <col min="5" max="7" width="4.58203125" style="18" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="18" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="4.58203125" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" style="18" customWidth="1"/>
-    <col min="16" max="19" width="4.58203125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="9.46484375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="18" customWidth="1"/>
+    <col min="5" max="7" width="4.59765625" style="18" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="18" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="4.59765625" style="18" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.46484375" style="18" customWidth="1"/>
+    <col min="16" max="19" width="4.59765625" style="18" customWidth="1"/>
     <col min="20" max="22" width="9" customWidth="1"/>
     <col min="32" max="35" width="9" style="19" customWidth="1"/>
     <col min="36" max="42" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -7486,7 +7481,7 @@
         <v>XXX</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A2" s="23" t="str">
         <f>IF(ISBLANK(真值表!B2),"",真值表!B2)</f>
         <v>add</v>
@@ -7640,7 +7635,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="str">
         <f>IF(ISBLANK(真值表!B3),"",真值表!B3)</f>
         <v>sub</v>
@@ -7794,7 +7789,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A4" s="23" t="str">
         <f>IF(ISBLANK(真值表!B4),"",真值表!B4)</f>
         <v>and</v>
@@ -7948,7 +7943,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A5" s="27" t="str">
         <f>IF(ISBLANK(真值表!B5),"",真值表!B5)</f>
         <v>or</v>
@@ -8102,7 +8097,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A6" s="23" t="str">
         <f>IF(ISBLANK(真值表!B6),"",真值表!B6)</f>
         <v>slt</v>
@@ -8256,7 +8251,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="str">
         <f>IF(ISBLANK(真值表!B7),"",真值表!B7)</f>
         <v>sltu</v>
@@ -8410,7 +8405,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A8" s="23" t="str">
         <f>IF(ISBLANK(真值表!B8),"",真值表!B8)</f>
         <v>addi</v>
@@ -8564,7 +8559,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A9" s="27" t="str">
         <f>IF(ISBLANK(真值表!B9),"",真值表!B9)</f>
         <v>andi</v>
@@ -8718,7 +8713,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A10" s="23" t="str">
         <f>IF(ISBLANK(真值表!B10),"",真值表!B10)</f>
         <v>ori</v>
@@ -8872,7 +8867,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="str">
         <f>IF(ISBLANK(真值表!B11),"",真值表!B11)</f>
         <v>xori</v>
@@ -9026,7 +9021,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A12" s="23" t="str">
         <f>IF(ISBLANK(真值表!B12),"",真值表!B12)</f>
         <v>slti</v>
@@ -9180,7 +9175,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A13" s="27" t="str">
         <f>IF(ISBLANK(真值表!B13),"",真值表!B13)</f>
         <v>slli</v>
@@ -9334,7 +9329,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A14" s="23" t="str">
         <f>IF(ISBLANK(真值表!B14),"",真值表!B14)</f>
         <v>srli</v>
@@ -9488,7 +9483,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A15" s="27" t="str">
         <f>IF(ISBLANK(真值表!B15),"",真值表!B15)</f>
         <v>srai</v>
@@ -9642,7 +9637,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A16" s="23" t="str">
         <f>IF(ISBLANK(真值表!B16),"",真值表!B16)</f>
         <v>lw</v>
@@ -9796,7 +9791,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A17" s="27" t="str">
         <f>IF(ISBLANK(真值表!B17),"",真值表!B17)</f>
         <v>sw</v>
@@ -9875,7 +9870,7 @@
       </c>
       <c r="T17" s="39" t="str">
         <f>IF(真值表!U17=1,$O17&amp;"+","")</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="U17" s="39" t="str">
         <f>IF(真值表!V17=1,$O17&amp;"+","")</f>
@@ -9887,7 +9882,7 @@
       </c>
       <c r="W17" s="39" t="str">
         <f>IF(真值表!X17=1,$O17&amp;"+","")</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="X17" s="39" t="str">
         <f>IF(真值表!Y17=1,$O17&amp;"+","")</f>
@@ -9950,7 +9945,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A18" s="23" t="str">
         <f>IF(ISBLANK(真值表!B18),"",真值表!B18)</f>
         <v>ecall</v>
@@ -10104,7 +10099,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A19" s="27" t="str">
         <f>IF(ISBLANK(真值表!B19),"",真值表!B19)</f>
         <v>beq</v>
@@ -10258,7 +10253,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A20" s="23" t="str">
         <f>IF(ISBLANK(真值表!B20),"",真值表!B20)</f>
         <v>bne</v>
@@ -10412,7 +10407,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A21" s="27" t="str">
         <f>IF(ISBLANK(真值表!B21),"",真值表!B21)</f>
         <v>jal</v>
@@ -10566,7 +10561,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A22" s="23" t="str">
         <f>IF(ISBLANK(真值表!B22),"",真值表!B22)</f>
         <v>jalr</v>
@@ -10720,7 +10715,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A23" s="27" t="str">
         <f>IF(ISBLANK(真值表!B23),"",真值表!B23)</f>
         <v>CSRRSI</v>
@@ -10874,7 +10869,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A24" s="23" t="str">
         <f>IF(ISBLANK(真值表!B24),"",真值表!B24)</f>
         <v>CSRRCI</v>
@@ -11028,7 +11023,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A25" s="27" t="str">
         <f>IF(ISBLANK(真值表!B25),"",真值表!B25)</f>
         <v>URET</v>
@@ -11182,7 +11177,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A26" s="23" t="str">
         <f>IF(ISBLANK(真值表!B26),"",真值表!B26)</f>
         <v>SLL</v>
@@ -11336,7 +11331,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A27" s="27" t="str">
         <f>IF(ISBLANK(真值表!B27),"",真值表!B27)</f>
         <v>SRL</v>
@@ -11490,7 +11485,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A28" s="23" t="str">
         <f>IF(ISBLANK(真值表!B28),"",真值表!B28)</f>
         <v>LB</v>
@@ -11644,7 +11639,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A29" s="27" t="str">
         <f>IF(ISBLANK(真值表!B29),"",真值表!B29)</f>
         <v>BGE</v>
@@ -11798,7 +11793,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A30" s="23" t="str">
         <f>IF(ISBLANK(真值表!B30),"",真值表!B30)</f>
         <v>LHU</v>
@@ -11952,7 +11947,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A31" s="27" t="str">
         <f>IF(ISBLANK(真值表!B31),"",真值表!B31)</f>
         <v>BLT</v>
@@ -12106,7 +12101,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:38" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A32" s="23" t="str">
         <f>IF(ISBLANK(真值表!B32),"",真值表!B32)</f>
         <v/>
@@ -12260,7 +12255,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A33" s="27" t="str">
         <f>IF(ISBLANK(真值表!B33),"",真值表!B33)</f>
         <v/>
@@ -12414,7 +12409,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A34" s="23" t="str">
         <f>IF(ISBLANK(真值表!B34),"",真值表!B34)</f>
         <v/>
@@ -12568,7 +12563,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A35" s="27" t="str">
         <f>IF(ISBLANK(真值表!B35),"",真值表!B35)</f>
         <v/>
@@ -12722,7 +12717,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A36" s="23" t="str">
         <f>IF(ISBLANK(真值表!B36),"",真值表!B36)</f>
         <v/>
@@ -12876,7 +12871,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A37" s="27" t="str">
         <f>IF(ISBLANK(真值表!B37),"",真值表!B37)</f>
         <v/>
@@ -13030,7 +13025,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A38" s="23" t="str">
         <f>IF(ISBLANK(真值表!B38),"",真值表!B38)</f>
         <v/>
@@ -13184,7 +13179,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A39" s="27" t="str">
         <f>IF(ISBLANK(真值表!B39),"",真值表!B39)</f>
         <v/>
@@ -13338,7 +13333,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A40" s="23" t="str">
         <f>IF(ISBLANK(真值表!B40),"",真值表!B40)</f>
         <v/>
@@ -13492,7 +13487,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A41" s="27" t="str">
         <f>IF(ISBLANK(真值表!B41),"",真值表!B41)</f>
         <v/>
@@ -13646,7 +13641,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A42" s="23" t="str">
         <f>IF(ISBLANK(真值表!B42),"",真值表!B42)</f>
         <v/>
@@ -13800,7 +13795,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A43" s="27" t="str">
         <f>IF(ISBLANK(真值表!B43),"",真值表!B43)</f>
         <v/>
@@ -13954,7 +13949,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A44" s="23" t="str">
         <f>IF(ISBLANK(真值表!B44),"",真值表!B44)</f>
         <v/>
@@ -14108,7 +14103,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A45" s="27" t="str">
         <f>IF(ISBLANK(真值表!B45),"",真值表!B45)</f>
         <v/>
@@ -14262,7 +14257,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A46" s="23" t="str">
         <f>IF(ISBLANK(真值表!B46),"",真值表!B46)</f>
         <v/>
@@ -14416,7 +14411,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A47" s="27" t="str">
         <f>IF(ISBLANK(真值表!B47),"",真值表!B47)</f>
         <v/>
@@ -14570,7 +14565,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A48" s="23" t="str">
         <f>IF(ISBLANK(真值表!B48),"",真值表!B48)</f>
         <v/>
@@ -14724,7 +14719,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A49" s="27" t="str">
         <f>IF(ISBLANK(真值表!B49),"",真值表!B49)</f>
         <v/>
@@ -14878,7 +14873,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A50" s="23" t="str">
         <f>IF(ISBLANK(真值表!B50),"",真值表!B50)</f>
         <v/>
@@ -15032,7 +15027,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A51" s="27" t="str">
         <f>IF(ISBLANK(真值表!B51),"",真值表!B51)</f>
         <v/>
@@ -15186,7 +15181,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A52" s="23" t="str">
         <f>IF(ISBLANK(真值表!B52),"",真值表!B52)</f>
         <v/>
@@ -15340,7 +15335,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A53" s="27" t="str">
         <f>IF(ISBLANK(真值表!B53),"",真值表!B53)</f>
         <v/>
@@ -15494,7 +15489,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A54" s="23" t="str">
         <f>IF(ISBLANK(真值表!B54),"",真值表!B54)</f>
         <v/>
@@ -15648,7 +15643,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A55" s="27" t="str">
         <f>IF(ISBLANK(真值表!B55),"",真值表!B55)</f>
         <v/>
@@ -15802,7 +15797,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A56" s="23" t="str">
         <f>IF(ISBLANK(真值表!B56),"",真值表!B56)</f>
         <v/>
@@ -15956,7 +15951,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.6">
       <c r="A57" s="27" t="str">
         <f>IF(ISBLANK(真值表!B57),"",真值表!B57)</f>
         <v/>
@@ -16110,7 +16105,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:50" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A58" s="70" t="s">
         <v>55</v>
       </c>
@@ -16146,7 +16141,7 @@
       </c>
       <c r="T58" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="U58" s="40" t="str">
         <f t="shared" si="2"/>
@@ -16158,7 +16153,7 @@
       </c>
       <c r="W58" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="X58" s="40" t="str">
         <f t="shared" si="2"/>
@@ -16221,7 +16216,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.4">
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,)</f>
         <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
@@ -16240,7 +16235,7 @@
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,)</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" ref="U59:AX59" si="3">CONCATENATE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32,U33,U34,U35,U36,U37,U38,U39,U40,U41,U42,U43,U44,U45,U46,U47,U48,U49,U50,U51,U52,U53,U54,U55,U56,U57,)</f>
@@ -16252,7 +16247,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -16363,7 +16358,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:50" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="P61" s="73" t="s">
         <v>56</v>
       </c>
@@ -16383,7 +16378,7 @@
       <c r="AD61" s="18"/>
       <c r="AE61" s="18"/>
     </row>
-    <row r="63" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" ht="15.75" x14ac:dyDescent="0.4">
       <c r="Q63" s="42" t="s">
         <v>57</v>
       </c>
@@ -16446,14 +16441,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="49.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" customWidth="1"/>
+    <col min="3" max="3" width="49.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -16464,7 +16459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
@@ -16475,7 +16470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>62</v>
       </c>
@@ -16486,7 +16481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>64</v>
       </c>
@@ -16497,7 +16492,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>66</v>
       </c>
@@ -16508,7 +16503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>68</v>
       </c>
@@ -16519,7 +16514,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>70</v>
       </c>
@@ -16530,7 +16525,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>72</v>
       </c>
@@ -16541,7 +16536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>74</v>
       </c>
@@ -16552,7 +16547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <v>1000</v>
       </c>
@@ -16563,7 +16558,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <v>1001</v>
       </c>
@@ -16574,7 +16569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>1010</v>
       </c>
@@ -16585,7 +16580,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11">
         <v>1011</v>
       </c>
@@ -16596,7 +16591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>1100</v>
       </c>
@@ -16624,14 +16619,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16645,7 +16640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -16659,7 +16654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16673,7 +16668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -16687,7 +16682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16701,7 +16696,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -16715,7 +16710,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -16729,7 +16724,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -16743,7 +16738,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -16757,7 +16752,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -16771,7 +16766,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -16785,7 +16780,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>11</v>
       </c>
